--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1116.71322572807</v>
+        <v>1170.388941922528</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1116.71322572807</v>
+        <v>1170.388941922528</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1007.578825873744</v>
+        <v>1056.008723141073</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1007.578825873744</v>
+        <v>1056.008723141073</v>
       </c>
     </row>
     <row r="14">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1170.388941922528</v>
+        <v>920.4767212210036</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1170.388941922528</v>
+        <v>920.4767212210036</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1056.008723141073</v>
+        <v>830.5004175541554</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1056.008723141073</v>
+        <v>830.5004175541554</v>
       </c>
     </row>
     <row r="14">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>920.4767212210036</v>
+        <v>0.1383952194513708</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>920.4767212210036</v>
+        <v>0.1383952194513708</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>830.5004175541554</v>
+        <v>3.090678116214709e-18</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>830.5004175541554</v>
+        <v>3.090678116214709e-18</v>
       </c>
     </row>
     <row r="14">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1383952194513708</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1383952194513708</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.090678116214709e-18</v>
+        <v>1421.172084527004</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.090678116214709e-18</v>
+        <v>1421.172084527004</v>
       </c>
     </row>
     <row r="14">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1421.172084527004</v>
+        <v>1421.18598771462</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1421.172084527004</v>
+        <v>1421.18598771462</v>
       </c>
     </row>
     <row r="14">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1421.18598771462</v>
+        <v>1421.199252239083</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1421.18598771462</v>
+        <v>1421.199252239083</v>
       </c>
     </row>
     <row r="14">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1421.199252239083</v>
+        <v>1421.201574319291</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1421.199252239083</v>
+        <v>1421.201574319291</v>
       </c>
     </row>
     <row r="14">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>373.9827308810273</v>
+        <v>74.74473542407863</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>373.982730881027</v>
+        <v>74.74473542407854</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>0.9993073109016987</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>356.482730881027</v>
+        <v>71.2471598359226</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>0.9993073109016987</v>
       </c>
     </row>
     <row r="7">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3500</v>
+        <v>699.515117631189</v>
       </c>
     </row>
     <row r="9">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1575</v>
+        <v>266.2820652073141</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1575</v>
+        <v>266.2820652073141</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1421.201574319291</v>
+        <v>240.280632614111</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1421.201574319291</v>
+        <v>240.280632614111</v>
       </c>
     </row>
     <row r="14">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17.5</v>
+        <v>3.497575588155945</v>
       </c>
     </row>
     <row r="15">

--- a/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
+++ b/Finesimulations/GRID_PV_Storage/Results/StorageModel.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>74.74473542407863</v>
+        <v>3722.262582325917</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>74.74473542407854</v>
+        <v>3722.262582325914</v>
       </c>
     </row>
     <row r="4">
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.9993073109016987</v>
+        <v>49.76516661019377</v>
       </c>
     </row>
     <row r="5">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71.2471598359226</v>
+        <v>3548.084499190235</v>
       </c>
     </row>
     <row r="6">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9993073109016987</v>
+        <v>49.76516661019377</v>
       </c>
     </row>
     <row r="7">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>699.515117631189</v>
+        <v>34835.61662713563</v>
       </c>
     </row>
     <row r="9">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>266.2820652073141</v>
+        <v>9707.816839233754</v>
       </c>
     </row>
     <row r="11">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>266.2820652073141</v>
+        <v>9707.816839233754</v>
       </c>
     </row>
     <row r="12">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>240.280632614111</v>
+        <v>8756.876020340693</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>240.280632614111</v>
+        <v>8756.876020340693</v>
       </c>
     </row>
     <row r="14">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.497575588155945</v>
+        <v>174.1780831356782</v>
       </c>
     </row>
     <row r="15">
